--- a/bin/cfgfile/template.xlsx
+++ b/bin/cfgfile/template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BJTU\work\netEq\platform\bin\cfgfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\12old\cfgfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="4200" sheetId="4" r:id="rId1"/>
+    <sheet name="19920222" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -600,7 +600,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
